--- a/InputFiles/CCDI/CCDI_StaticData.xlsx
+++ b/InputFiles/CCDI/CCDI_StaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C64B305-52C0-FF4B-983D-3DEB551B33BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4219BF51-F67D-114D-BBC9-9C5085DA4DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V_HomePage" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>FooterContactCCDILink</t>
   </si>
   <si>
-    <t>Contact CCDI Hub</t>
-  </si>
-  <si>
     <t>mailto:NCIChildhoodCancerDataInitiative@mail.nih.gov</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>datacommons.cancer.gov</t>
+  </si>
+  <si>
+    <t>Contact CCDI Hub</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -820,101 +820,101 @@
     </row>
     <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -927,24 +927,24 @@
     </row>
     <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -955,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -994,10 +994,10 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1032,13 +1032,13 @@
     </row>
     <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -1127,18 +1127,18 @@
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="210" x14ac:dyDescent="0.15">
@@ -1146,34 +1146,34 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617D133-F6EE-914E-86A1-88FCBD0B7B49}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1215,187 +1215,187 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
